--- a/testData/addresses.xlsx
+++ b/testData/addresses.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/najikaddoura/Desktop/Senior Project/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6947AEE-E539-F748-9050-3CB63D89DB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8B536CAB-4C86-5F4F-A322-275E3F30E949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260"/>
+    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addresses" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -957,11 +957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,8 +1012,8 @@
         <v>1111</v>
       </c>
       <c r="H2" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B2&amp;", "&amp;C2&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (123 S Somewhere St, 423 E Money Rd)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;F2&amp;", "&amp;G2&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (123 S Somewhere St, 423 E Money Rd, Spokane, 99999, 1111)</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,8 +1039,8 @@
         <v>1111</v>
       </c>
       <c r="H3" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B3&amp;", "&amp;C3&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (324 N Nowhere Rd, 865 W Something Ave)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;F3&amp;", "&amp;G3&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (324 N Nowhere Rd, 865 W Something Ave, Washington DC, 99999, 1111)</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1066,8 +1066,8 @@
         <v>1111</v>
       </c>
       <c r="H4" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B4&amp;", "&amp;C4&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (5461 Rainbow Rd, 9801 Sadness St)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B4&amp;", "&amp;C4&amp;", "&amp;D4&amp;", "&amp;F4&amp;", "&amp;G4&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (5461 Rainbow Rd, 9801 Sadness St, Sacramento, 99999, 1111)</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,8 +1093,8 @@
         <v>1111</v>
       </c>
       <c r="H5" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B5&amp;", "&amp;C5&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (5555 Cake Rd, 999 Lime Rd)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B5&amp;", "&amp;C5&amp;", "&amp;D5&amp;", "&amp;F5&amp;", "&amp;G5&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (5555 Cake Rd, 999 Lime Rd, Chicago, 99999, 1111)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,8 +1120,8 @@
         <v>1111</v>
       </c>
       <c r="H6" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B6&amp;", "&amp;C6&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (2534 Pikeplace Rd, 111 Banananana Ave)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B6&amp;", "&amp;C6&amp;", "&amp;D6&amp;", "&amp;F6&amp;", "&amp;G6&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (2534 Pikeplace Rd, 111 Banananana Ave, Seattle, 99999, 1111)</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,8 +1147,8 @@
         <v>1111</v>
       </c>
       <c r="H7" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B7&amp;", "&amp;C7&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (4444 Videogame St, 333 Potato St)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B7&amp;", "&amp;C7&amp;", "&amp;D7&amp;", "&amp;F7&amp;", "&amp;G7&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (4444 Videogame St, 333 Potato St, Spokane, 99999, 1111)</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1174,8 +1174,8 @@
         <v>1111</v>
       </c>
       <c r="H8" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B8&amp;", "&amp;C8&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (1243 Sony St, 222 Olives Rd)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B8&amp;", "&amp;C8&amp;", "&amp;D8&amp;", "&amp;F8&amp;", "&amp;G8&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (1243 Sony St, 222 Olives Rd, Spokane, 99999, 1111)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1201,8 +1201,8 @@
         <v>1111</v>
       </c>
       <c r="H9" t="str">
-        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;") values ("&amp;B9&amp;", "&amp;C9&amp;")"</f>
-        <v>insert into addresses (address1, address2) values (7777 Gettingicecream Ave, 5463 SomecleverName Ave)</v>
+        <f>"insert into addresses ("&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;F1&amp;", "&amp;G1&amp;") values ("&amp;B9&amp;", "&amp;C9&amp;", "&amp;D9&amp;", "&amp;F9&amp;", "&amp;G9&amp;")"</f>
+        <v>insert into addresses (address1, address2, city, zipcode, zipcode_ext) values (7777 Gettingicecream Ave, 5463 SomecleverName Ave, Somewhereville, 99999, 1111)</v>
       </c>
     </row>
   </sheetData>
